--- a/src/WTCJ/WTCJ/Excel/Template/基站项目进度表模板.xlsx
+++ b/src/WTCJ/WTCJ/Excel/Template/基站项目进度表模板.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>地址</t>
   </si>
@@ -105,23 +105,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>交付时间预警</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营合同签约时间预警</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>预警时间（以预算表/损益表通过时间为基准时间）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>站点类型归属</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>进场时间预警</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -217,15 +201,6 @@
   </si>
   <si>
     <t>运营商签订合同完成日期</t>
-  </si>
-  <si>
-    <t>进场时间预警</t>
-  </si>
-  <si>
-    <t>交付时间预警</t>
-  </si>
-  <si>
-    <t>运营合同签约时间预警</t>
   </si>
   <si>
     <t>是否退点</t>
@@ -512,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -565,17 +540,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -8661,7 +8625,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8684,9 +8648,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12461,10 +12422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AG2" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12474,27 +12435,27 @@
     <col min="44" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="3" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" s="3" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -12503,22 +12464,22 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>6</v>
@@ -12530,102 +12491,93 @@
         <v>4</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="AS1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>16</v>
@@ -12649,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>13</v>
@@ -12694,57 +12646,52 @@
         <v>17</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="8"/>
       <c r="AA2" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="8"/>
       <c r="AC2" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AF2" s="8"/>
       <c r="AG2" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AH2" s="8"/>
       <c r="AI2" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AN2" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AO2" s="8"/>
       <c r="AP2" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AQ2" s="8"/>
-      <c r="AR2" s="7" t="s">
-        <v>25</v>
+      <c r="AR2" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -12770,95 +12717,65 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AM3" s="6"/>
       <c r="AN3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
-      <c r="AR3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
+  <mergeCells count="36">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -12875,6 +12792,26 @@
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
